--- a/Evaluation/Results/RQ1/flakiness rate.xlsx
+++ b/Evaluation/Results/RQ1/flakiness rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrdad\Documents\rabbitrun\meetings\Extending Paper 2\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrdad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA3ABE9-DD09-4102-B876-8C7D5248D07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8E378D-BE39-437B-B6BA-018805ABE7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,28 +47,28 @@
     <t>Number of Flaky Tests</t>
   </si>
   <si>
-    <t>BeamNG CMP</t>
-  </si>
-  <si>
-    <t>Dave2 CMP</t>
-  </si>
-  <si>
-    <t>NTSS</t>
-  </si>
-  <si>
-    <t>BeamNG TWN R1</t>
-  </si>
-  <si>
-    <t>BeamNG TWN R2</t>
-  </si>
-  <si>
-    <t>BeamNG TWN R3</t>
-  </si>
-  <si>
-    <t>BeamNG TWN R4</t>
-  </si>
-  <si>
     <t>% of Flaky Tests</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>APSNG</t>
+  </si>
+  <si>
+    <t>Dave2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -435,12 +435,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>200</v>
